--- a/my_inputs.xlsx
+++ b/my_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\1161\bookAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0020AD-914D-4874-8449-43EB7EA65F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938FB6D-7027-4378-BA7F-4EF8012141C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5348" yWindow="1927" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,9 +539,6 @@
     <t>Standalone</t>
   </si>
   <si>
-    <t>Non Fiction</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>LGBTQIA_Characters</t>
+  </si>
+  <si>
+    <t>NonFiction</t>
   </si>
 </sst>
 </file>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -993,13 +993,13 @@
         <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1018,7 +1018,7 @@
         <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="4">
         <v>43780</v>
@@ -1043,7 +1043,7 @@
         <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="4">
         <v>41923</v>
@@ -1062,13 +1062,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="4">
         <v>43361</v>
@@ -1091,7 +1091,7 @@
         <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="4">
         <v>42069</v>
@@ -1111,10 +1111,10 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1135,7 +1135,7 @@
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1148,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="4">
         <v>44012</v>
@@ -1174,10 +1174,10 @@
         <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1193,10 +1193,10 @@
         <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1212,10 +1212,10 @@
         <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1231,10 +1231,10 @@
         <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1250,10 +1250,10 @@
         <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1269,10 +1269,10 @@
         <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1288,10 +1288,10 @@
         <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1307,10 +1307,10 @@
         <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1326,10 +1326,10 @@
         <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1345,10 +1345,10 @@
         <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1364,10 +1364,10 @@
         <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1383,10 +1383,10 @@
         <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1405,7 +1405,7 @@
         <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1424,7 +1424,7 @@
         <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22" s="4">
         <v>42425</v>
@@ -1447,7 +1447,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1463,10 +1463,10 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1485,7 +1485,7 @@
         <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1504,7 +1504,7 @@
         <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1523,7 +1523,7 @@
         <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="4">
         <v>41000</v>
@@ -1548,7 +1548,7 @@
         <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1567,7 +1567,7 @@
         <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1586,7 +1586,7 @@
         <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="4">
         <v>43782</v>
@@ -1606,10 +1606,10 @@
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1625,10 +1625,10 @@
         <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1644,10 +1644,10 @@
         <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1663,10 +1663,10 @@
         <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1685,7 +1685,7 @@
         <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35" s="4">
         <v>42064</v>
@@ -1708,7 +1708,7 @@
         <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36" s="4">
         <v>41791</v>
@@ -1731,7 +1731,7 @@
         <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="4">
         <v>42064</v>
@@ -1751,10 +1751,10 @@
         <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1770,10 +1770,10 @@
         <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1789,10 +1789,10 @@
         <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1808,10 +1808,10 @@
         <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1827,10 +1827,10 @@
         <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1846,10 +1846,10 @@
         <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1865,10 +1865,10 @@
         <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1887,7 +1887,7 @@
         <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -1903,10 +1903,10 @@
         <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" s="4">
         <v>43908</v>
@@ -1926,10 +1926,10 @@
         <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" s="4">
         <v>43915</v>
@@ -1952,7 +1952,7 @@
         <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48" s="4">
         <v>42370</v>
@@ -1972,10 +1972,10 @@
         <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F49" s="4">
         <v>41883</v>
@@ -1995,10 +1995,10 @@
         <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="4">
         <v>41866</v>
@@ -2018,10 +2018,10 @@
         <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="4">
         <v>41852</v>
@@ -2044,7 +2044,7 @@
         <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2063,7 +2063,7 @@
         <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2082,7 +2082,7 @@
         <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2101,7 +2101,7 @@
         <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2120,7 +2120,7 @@
         <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2139,7 +2139,7 @@
         <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2158,7 +2158,7 @@
         <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" s="4">
         <v>43497</v>
@@ -2178,10 +2178,10 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F59" s="4">
         <v>44000</v>
@@ -2198,13 +2198,13 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
         <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2223,7 +2223,7 @@
         <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" s="4">
         <v>43991</v>
@@ -2246,7 +2246,7 @@
         <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F62" s="4">
         <v>43986</v>
@@ -2266,10 +2266,10 @@
         <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F63" s="4">
         <v>43995</v>
@@ -2289,10 +2289,10 @@
         <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F64" s="4">
         <v>43991</v>
@@ -2315,7 +2315,7 @@
         <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F65" s="4">
         <v>43950</v>
@@ -2332,13 +2332,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
         <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F66" s="4">
         <v>44012</v>
@@ -2361,7 +2361,7 @@
         <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F67" s="4">
         <v>43937</v>
@@ -2384,7 +2384,7 @@
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" s="4">
         <v>43978</v>
@@ -2407,7 +2407,7 @@
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F69" s="4">
         <v>41795</v>
@@ -2424,13 +2424,13 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
         <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F70" s="4">
         <v>42926</v>
@@ -2453,7 +2453,7 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F71" s="4">
         <v>43978</v>
@@ -2476,7 +2476,7 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" s="4">
         <v>42500</v>
@@ -2499,7 +2499,7 @@
         <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F73" s="4">
         <v>43432</v>
@@ -2519,10 +2519,10 @@
         <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" s="4">
         <v>43900</v>
@@ -2545,7 +2545,7 @@
         <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F75" s="4">
         <v>44002</v>
@@ -2562,13 +2562,13 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
         <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F76" s="4">
         <v>43177</v>
@@ -2585,13 +2585,13 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
         <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F77" s="4">
         <v>43177</v>
@@ -2614,7 +2614,7 @@
         <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F78" s="4">
         <v>42471</v>
@@ -2637,7 +2637,7 @@
         <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" s="4">
         <v>43676</v>
@@ -2660,7 +2660,7 @@
         <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F80" s="4">
         <v>43809</v>
@@ -2683,7 +2683,7 @@
         <v>168</v>
       </c>
       <c r="E81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F81" s="4">
         <v>43952</v>
@@ -2706,7 +2706,7 @@
         <v>168</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" s="4">
         <v>43845</v>
@@ -2731,7 +2731,7 @@
         <v>168</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F83" s="4">
         <v>43538</v>
@@ -2753,10 +2753,10 @@
         <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F84" s="4">
         <v>43922</v>
@@ -2776,10 +2776,10 @@
         <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F85" s="4">
         <v>43353</v>
@@ -2801,10 +2801,10 @@
         <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F86" s="4">
         <v>43477</v>
@@ -2829,7 +2829,7 @@
         <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F87" s="4">
         <v>41861</v>
@@ -2852,7 +2852,7 @@
         <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F88" s="4">
         <v>43931</v>
@@ -2875,7 +2875,7 @@
         <v>168</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F89" s="4">
         <v>43656</v>
@@ -2900,7 +2900,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F90" s="4">
         <v>42767</v>
@@ -2925,7 +2925,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
